--- a/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.54.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,11 +681,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -693,14 +689,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -715,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>52.7</v>
+        <v>52.89</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_29_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,7 +750,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -762,7 +762,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -784,34 +784,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="O5" t="n">
         <v>52.7</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.95</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_13_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,11 +823,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -835,14 +831,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -857,34 +853,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="O6" t="n">
-        <v>52.38</v>
+        <v>52.7</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q6" t="n">
         <v>0.95</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_13_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,11 +892,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -908,14 +900,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -930,34 +922,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
-        <v>52.28</v>
+        <v>52.64</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_17_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,7 +961,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -977,7 +973,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -999,34 +995,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="O8" t="n">
-        <v>51.37</v>
+        <v>52.38</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_01_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,7 +1034,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1046,14 +1046,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1068,34 +1068,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="O9" t="n">
-        <v>51.21</v>
+        <v>52.28</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>0.97</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_36_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1107,11 +1107,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1119,14 +1115,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1141,34 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="O10" t="n">
-        <v>51.11</v>
+        <v>51.61</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_05_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1195,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1215,20 +1211,20 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="O11" t="n">
-        <v>50.99</v>
+        <v>51.37</v>
       </c>
       <c r="P11" t="n">
         <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_24_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_01_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1237,7 +1233,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1249,11 +1245,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1261,14 +1253,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1283,34 +1275,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="O12" t="n">
-        <v>50.74</v>
+        <v>51.21</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_36_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1341,7 +1333,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1363,27 +1355,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="O13" t="n">
-        <v>50.33</v>
+        <v>51.11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1395,11 +1387,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1407,14 +1395,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1429,34 +1417,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="O14" t="n">
-        <v>50.28</v>
+        <v>50.99</v>
       </c>
       <c r="P14" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.78</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_24_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1487,7 +1475,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1503,33 +1491,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="O15" t="n">
-        <v>49.48</v>
+        <v>50.74</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.85</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1560,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1576,33 +1564,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
-        <v>49.37</v>
+        <v>50.33</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1633,7 +1621,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1649,29 +1637,248 @@
         </is>
       </c>
       <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O18" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O19" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
         <v>1.63</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O20" t="n">
         <v>48.68</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P20" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q20" t="n">
         <v>0.6</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
